--- a/kcl-Feb-2016/TimeTable.7BBG2014.M7.Bioinformatics.Genomic.Medicine.Feb.2016.xlsx
+++ b/kcl-Feb-2016/TimeTable.7BBG2014.M7.Bioinformatics.Genomic.Medicine.Feb.2016.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
@@ -427,9 +427,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -486,7 +489,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -497,6 +500,9 @@
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -829,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
